--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8139,15 +8139,90 @@
         <v>0.7095</v>
       </c>
       <c r="D308" t="n">
+        <v>0.7098</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.7078</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.7088</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDJOD</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
         <v>0.7095</v>
       </c>
-      <c r="E308" t="n">
-        <v>0.7078</v>
-      </c>
-      <c r="F308" t="n">
-        <v>0.7078</v>
-      </c>
-      <c r="G308" t="n">
+      <c r="D309" t="n">
+        <v>0.7098</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.7084</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.7084</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDJOD</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.7084</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.7098</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.7084</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.7089</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDJOD</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7089</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.7089</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.7086</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.7087</v>
+      </c>
+      <c r="G311" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
@@ -8217,10 +8217,10 @@
         <v>0.7089</v>
       </c>
       <c r="E311" t="n">
-        <v>0.7086</v>
+        <v>0.7084</v>
       </c>
       <c r="F311" t="n">
-        <v>0.7087</v>
+        <v>0.7085</v>
       </c>
       <c r="G311" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -8217,12 +8217,37 @@
         <v>0.7089</v>
       </c>
       <c r="E311" t="n">
-        <v>0.7084</v>
+        <v>0.7078</v>
       </c>
       <c r="F311" t="n">
-        <v>0.7085</v>
+        <v>0.7078</v>
       </c>
       <c r="G311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDJOD</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.7078</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.7083</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.7078</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.7081</v>
+      </c>
+      <c r="G312" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -8242,10 +8242,10 @@
         <v>0.7083</v>
       </c>
       <c r="E312" t="n">
-        <v>0.7078</v>
+        <v>0.7072000000000001</v>
       </c>
       <c r="F312" t="n">
-        <v>0.7081</v>
+        <v>0.708</v>
       </c>
       <c r="G312" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8239,7 +8239,7 @@
         <v>0.7078</v>
       </c>
       <c r="D312" t="n">
-        <v>0.7083</v>
+        <v>0.7095</v>
       </c>
       <c r="E312" t="n">
         <v>0.7072000000000001</v>
@@ -8248,6 +8248,81 @@
         <v>0.708</v>
       </c>
       <c r="G312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDJOD</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.7095</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.7078</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.7094</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDJOD</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7094</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.7096</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.7084</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDJOD</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.7084</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.7097</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.7084</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.7097</v>
+      </c>
+      <c r="G315" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
@@ -8320,7 +8320,7 @@
         <v>0.7084</v>
       </c>
       <c r="F315" t="n">
-        <v>0.7097</v>
+        <v>0.7087</v>
       </c>
       <c r="G315" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Jordan_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7646,9 +7646,32 @@
         <v>0.7084</v>
       </c>
       <c r="F315">
-        <v>0.7087</v>
+        <v>0.7092000000000001</v>
       </c>
       <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <v>0.7092000000000001</v>
+      </c>
+      <c r="D316">
+        <v>0.7092000000000001</v>
+      </c>
+      <c r="E316">
+        <v>0.709</v>
+      </c>
+      <c r="F316">
+        <v>0.7092000000000001</v>
+      </c>
+      <c r="G316">
         <v>0</v>
       </c>
     </row>
